--- a/game_system/systems/base.xlsx
+++ b/game_system/systems/base.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4550" yWindow="4220" windowWidth="19190" windowHeight="14990" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ダンジョン" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="道具箱" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="プレイヤー詳細ステータス" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="level_table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="スライム" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ゴブリン" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="オーク" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ドラゴン" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="通常ダンジョン" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ボスダンジョン" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="道具箱" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="プレイヤー詳細ステータス" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="level_table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="スライム" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ゴブリン" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="オーク" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ドラゴン" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -421,12 +422,12 @@
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.08203125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,7 +437,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -446,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +514,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -523,7 +524,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11"/>
@@ -1073,6 +1074,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col width="9" customWidth="1" style="2" min="1" max="1"/>
+    <col width="15.08203125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="9" customWidth="1" style="2" min="3" max="4"/>
+    <col width="9" customWidth="1" style="2" min="5" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>skill_qty</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>skill1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>skill2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>skill3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>prob</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>drop1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ドラゴンの肉</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>drop2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ドラゴンの鱗</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>drop3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ドラゴンの牙</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>drop4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ドラゴンの瞳</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>drop5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ドラゴンの心臓</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>drop6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ドラゴンの核</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1081,11 +1309,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="2" max="2"/>
   </cols>
@@ -1175,16 +1403,6 @@
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>霊峰</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ドラゴン</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -1198,877 +1416,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="13.375" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>冒険の書</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>enemy1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>enemy2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>enemy3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>山頂</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>スライムの核</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>錆びた盾</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="A5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2080,19 +1502,441 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="13.33203125" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>冒険の書</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2104,7 +1948,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2834,230 +2678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lv</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hp</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>atk</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>skill_qty</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>skill1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>skill2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>skill3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>prob</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>drop1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>スライムゼリー</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>drop2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>錆取り粉</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>drop3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>スライムの核</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>drop4</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>drop5</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>drop6</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3070,12 +2690,12 @@
   <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.08203125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3085,7 +2705,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -3095,7 +2715,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3105,7 +2725,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3124,6 +2744,11 @@
           <t>skill1</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3131,11 +2756,21 @@
           <t>skill2</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>skill3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>なし</t>
         </is>
       </c>
     </row>
@@ -3147,7 +2782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3157,7 +2792,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11"/>
@@ -3181,14 +2816,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>錆びた剣</t>
+          <t>スライムゼリー</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
       <c r="D13" t="n">
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="14">
@@ -3199,14 +2834,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>錆びた盾</t>
+          <t>錆取り粉</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15">
@@ -3217,14 +2852,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>錆びた帽子</t>
+          <t>スライムの核</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3233,13 +2868,8 @@
           <t>drop4</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ゴブリンの核</t>
-        </is>
-      </c>
       <c r="C16" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -3755,6 +3385,7 @@
     <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3767,12 +3398,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.08203125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3782,7 +3413,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -3792,7 +3423,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -3802,7 +3433,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3821,11 +3452,6 @@
           <t>skill1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>怠け（行動確率50%）</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3848,7 +3474,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3858,7 +3484,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3881,14 +3507,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>豚バラ</t>
+          <t>錆びた剣</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
@@ -3899,14 +3525,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>豚ロース</t>
+          <t>錆びた盾</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="D14" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15">
@@ -3917,11 +3543,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>豚ヒレ</t>
+          <t>錆びた帽子</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="D15" t="n">
         <v>0.99</v>
@@ -3935,7 +3561,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>オークの核</t>
+          <t>ゴブリンの核</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
@@ -3985,14 +3611,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="16384"/>
+    <col width="15.08203125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4002,7 +3626,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4012,7 +3636,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4022,7 +3646,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -4041,6 +3665,11 @@
           <t>skill1</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>怠け（行動確率50%）</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4063,7 +3692,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -4073,7 +3702,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -4096,11 +3725,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ドラゴンの肉</t>
+          <t>豚バラ</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -4114,11 +3743,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ドラゴンの鱗</t>
+          <t>豚ロース</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="D14" t="n">
         <v>0.85</v>
@@ -4132,11 +3761,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ドラゴンの牙</t>
+          <t>豚ヒレ</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="D15" t="n">
         <v>0.99</v>
@@ -4150,11 +3779,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ドラゴンの瞳</t>
+          <t>オークの核</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -4166,13 +3795,8 @@
           <t>drop5</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ドラゴンの心臓</t>
-        </is>
-      </c>
       <c r="C17" s="1" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -4184,13 +3808,8 @@
           <t>drop6</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ドラゴンの核</t>
-        </is>
-      </c>
       <c r="C18" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
